--- a/results/descriptive_stats_indexes.xlsx
+++ b/results/descriptive_stats_indexes.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">Índice</t>
   </si>
@@ -32,15 +32,12 @@
     <t xml:space="preserve">Mediana</t>
   </si>
   <si>
-    <t xml:space="preserve">Subíndice 1: poder do Legislativo face ao Executivo (normalizado)</t>
+    <t xml:space="preserve">Subíndice 1: poder do Legislativo em relação ao Executivo (normalizado)</t>
   </si>
   <si>
     <t xml:space="preserve">Cavalcanti</t>
   </si>
   <si>
-    <t xml:space="preserve">Subíndice 1: poder formal do Legislativo face ao Executivo (normalizado)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wehner (2006)</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dabla-Norris et al (2010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Índice Composto (normalizado)</t>
   </si>
   <si>
     <t xml:space="preserve">Índice composto (normalizado e invertido)</t>
@@ -451,10 +445,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="n">
         <v>66.6666666666667</v>
@@ -471,10 +465,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>77.6666666666667</v>
@@ -491,7 +485,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -511,10 +505,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>50</v>
@@ -531,10 +525,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
@@ -551,67 +545,67 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>51.7777777777778</v>
+        <v>47.93</v>
       </c>
       <c r="D8" t="n">
-        <v>40.8888888888889</v>
+        <v>36.68</v>
       </c>
       <c r="E8" t="n">
-        <v>47.0138562091503</v>
+        <v>40.2461764705882</v>
       </c>
       <c r="F8" t="n">
-        <v>46</v>
+        <v>36.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>47.93</v>
+        <v>35.25</v>
       </c>
       <c r="D9" t="n">
-        <v>36.68</v>
+        <v>13.3</v>
       </c>
       <c r="E9" t="n">
-        <v>40.2461764705882</v>
+        <v>20.9132352941176</v>
       </c>
       <c r="F9" t="n">
-        <v>36.68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>35.25</v>
+        <v>51.7777777777778</v>
       </c>
       <c r="D10" t="n">
-        <v>13.3</v>
+        <v>40.8888888888889</v>
       </c>
       <c r="E10" t="n">
-        <v>20.9132352941176</v>
+        <v>47.0138562091503</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -631,10 +625,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" t="n">
         <v>48.6809523809524</v>
@@ -651,10 +645,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
         <v>53.6956654456654</v>
